--- a/postgrad_job_search/src/Companies.xlsx
+++ b/postgrad_job_search/src/Companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/necabotheking/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathryn/Projects/Job Search/postgrad-job-search/postgrad_job_search/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125CF34-A38A-4840-8155-27DB67D56D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F081977-D3DD-7346-B132-6B791DDDBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t>Website</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Positions [Key Words]</t>
   </si>
   <si>
-    <t>The Markup</t>
-  </si>
-  <si>
-    <t>https://boards.greenhouse.io/themarkup</t>
-  </si>
-  <si>
     <t>Non-Profit</t>
   </si>
   <si>
@@ -127,12 +121,6 @@
     <t>Statistian, Associate, Survey</t>
   </si>
   <si>
-    <t>Discord</t>
-  </si>
-  <si>
-    <t>https://discord.com/careers</t>
-  </si>
-  <si>
     <t>OpenGov</t>
   </si>
   <si>
@@ -248,13 +236,229 @@
   </si>
   <si>
     <t>https://www.upturn.org/join/</t>
+  </si>
+  <si>
+    <t>https://workforcenow.adp.com/mascsr/default/mdf/recruitment/recruitment.html?cid=06ad7616-50b8-4b21-a7aa-fc2b38d5d5e0&amp;ccId=19000101_000001&amp;type=MP&amp;lang=en_US&amp;selectedMenuKey=CareerCenter</t>
+  </si>
+  <si>
+    <t>https://www.cepr.net/job-listings/</t>
+  </si>
+  <si>
+    <t>https://www.nber.org/career-resources/staff-positions-nber</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/acumenllc</t>
+  </si>
+  <si>
+    <t>https://calbudgetcenter.org/careers/</t>
+  </si>
+  <si>
+    <t>https://www.chicago.gov/city/en/depts/obm/provdrs/management/svcs/Data-Analytics.html</t>
+  </si>
+  <si>
+    <t>https://www.civisanalytics.com/careers/</t>
+  </si>
+  <si>
+    <t>https://reglab.stanford.edu/contact/</t>
+  </si>
+  <si>
+    <t>https://www.aclu.org/careers/</t>
+  </si>
+  <si>
+    <t>https://oddball.io/jobs/</t>
+  </si>
+  <si>
+    <t>https://civicactions.com/careers#open-positions</t>
+  </si>
+  <si>
+    <t>https://jobs.techallies.org/#section-235189</t>
+  </si>
+  <si>
+    <t>https://digidems.com/</t>
+  </si>
+  <si>
+    <t>https://adhocteam.us/join/jobs/</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/agilesix</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/aquiainc/posts/?feedView=all</t>
+  </si>
+  <si>
+    <t>https://bloomworks.digital/jobs</t>
+  </si>
+  <si>
+    <t>https://urban.wd1.myworkdayjobs.com/en-US/Urban-Careers/details/Research-Analyst--Financial-Well-Being--Center-on-Labor--Human-Services--and-Population-_R-801504?q=data</t>
+  </si>
+  <si>
+    <t>https://careers.mathematica.org/search-jobs/data/727/1?fl=6252001,1000000000100</t>
+  </si>
+  <si>
+    <t>https://www.ipr.northwestern.edu/who-we-are/leadership-staff/join-our-team/</t>
+  </si>
+  <si>
+    <t>https://wd5.myworkday.com/uchicago/d/faceted-search2/c1/fs2/recover-current-state.htmld</t>
+  </si>
+  <si>
+    <t>https://careers.northwestern.edu/psc/hr857prd_er/EMPLOYEE/HRMS/c/HRS_HRAM_FL.HRS_CG_SEARCH_FL.GBL?Page=HRS_APP_SCHJOB_FL&amp;Action=U&amp;</t>
+  </si>
+  <si>
+    <t>https://www.usajobs.gov/Help/working-in-government/unique-hiring-paths/students/</t>
+  </si>
+  <si>
+    <t>https://www.clasp.org/about/careers/</t>
+  </si>
+  <si>
+    <t>https://cssp.org/about-us/connect/job-opportunities/</t>
+  </si>
+  <si>
+    <t>https://www.childtrends.org/careers/job-openings</t>
+  </si>
+  <si>
+    <t>https://jointcenter.org/about/careers/</t>
+  </si>
+  <si>
+    <t>https://publicagenda.org/about/careers/</t>
+  </si>
+  <si>
+    <t>https://www.epi.org/careers/</t>
+  </si>
+  <si>
+    <t>https://www.socialprogress.org/careers/</t>
+  </si>
+  <si>
+    <t>https://secure6.saashr.com/ta/6162152.careers?CareersSearch=&amp;InFrameset=0&amp;HostedBy=www.mdrc.org</t>
+  </si>
+  <si>
+    <t>https://ips-dc.org/about/jobs-internships/</t>
+  </si>
+  <si>
+    <t>https://justicepolicy.org/about-us/</t>
+  </si>
+  <si>
+    <t>https://unitednationsfoundation.applytojob.com/apply</t>
+  </si>
+  <si>
+    <t>Human Services Research Institute</t>
+  </si>
+  <si>
+    <t>Center for Economic and Policy Research</t>
+  </si>
+  <si>
+    <t>National Bureau of Economic Research</t>
+  </si>
+  <si>
+    <t>The Sphere</t>
+  </si>
+  <si>
+    <t>California Budget and Policy Center</t>
+  </si>
+  <si>
+    <t>City of Chicago OMB</t>
+  </si>
+  <si>
+    <t>Civis Analytics</t>
+  </si>
+  <si>
+    <t>Reg Lab</t>
+  </si>
+  <si>
+    <t>ACLU</t>
+  </si>
+  <si>
+    <t>Oddball</t>
+  </si>
+  <si>
+    <t>CivicActions</t>
+  </si>
+  <si>
+    <t>Community Tech Alliance</t>
+  </si>
+  <si>
+    <t>DigiDems</t>
+  </si>
+  <si>
+    <t>Ad Hoc</t>
+  </si>
+  <si>
+    <t>Agilesix</t>
+  </si>
+  <si>
+    <t>Aquia</t>
+  </si>
+  <si>
+    <t>Bloom Works</t>
+  </si>
+  <si>
+    <t>Urban Institute</t>
+  </si>
+  <si>
+    <t>IPR</t>
+  </si>
+  <si>
+    <t>UChicago</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>USA Jobs</t>
+  </si>
+  <si>
+    <t>Greater Chicago Area Food repository</t>
+  </si>
+  <si>
+    <t>Feeding America</t>
+  </si>
+  <si>
+    <t>CLASP</t>
+  </si>
+  <si>
+    <t>CSSP</t>
+  </si>
+  <si>
+    <t>Child Trends</t>
+  </si>
+  <si>
+    <t>Joint Center</t>
+  </si>
+  <si>
+    <t>Public Agenda</t>
+  </si>
+  <si>
+    <t>CEPR</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>Social Progress</t>
+  </si>
+  <si>
+    <t>MDRC</t>
+  </si>
+  <si>
+    <t>Institute For Policy Studies</t>
+  </si>
+  <si>
+    <t>Justice Policy Institute</t>
+  </si>
+  <si>
+    <t>UN Foundation</t>
+  </si>
+  <si>
+    <t>https://www.chicagosfoodbank.org/about/careers/</t>
+  </si>
+  <si>
+    <t>https://www.feedingamerica.org/about-us/careers/national-office-jobs-list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -285,6 +489,20 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -328,10 +546,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,8 +567,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,10 +788,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -598,16 +820,16 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -621,120 +843,120 @@
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -744,11 +966,11 @@
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -758,39 +980,42 @@
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -804,10 +1029,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -821,7 +1043,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -835,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -849,7 +1071,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -863,7 +1085,10 @@
         <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -877,120 +1102,117 @@
         <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>59</v>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>2</v>
@@ -999,97 +1221,441 @@
         <v>71</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="7" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" location="staff-opportunities" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" location="staff-opportunities" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="C11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B15" r:id="rId27" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C15" r:id="rId28" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B17" r:id="rId31" location="open-positions" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="C17" r:id="rId32" location="open-positions" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B20" r:id="rId37" location="research-assistant" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="C20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="C21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="C22" r:id="rId42" location="care-package" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="C23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="C24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="C25" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="C27" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="C28" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B29" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="C29" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B30" r:id="rId57" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="C30" r:id="rId58" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId3" location="staff-opportunities" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C3" r:id="rId4" location="staff-opportunities" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B13" r:id="rId23" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C13" r:id="rId24" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B15" r:id="rId27" location="open-positions" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C15" r:id="rId28" location="open-positions" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C17" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B18" r:id="rId33" location="research-assistant" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="C20" r:id="rId38" location="care-package" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="C21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="C22" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="C23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="C24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="C25" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="C27" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="C28" r:id="rId54" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="C29" r:id="rId55" xr:uid="{435FC3AB-473A-2D43-AF46-689C818A59AA}"/>
+    <hyperlink ref="C30" r:id="rId56" xr:uid="{CA6B1CAB-FA06-3345-8C53-70085F62CAED}"/>
+    <hyperlink ref="C31" r:id="rId57" xr:uid="{5BD2D6D4-AB12-C649-A965-7B5857A6C154}"/>
+    <hyperlink ref="C32" r:id="rId58" xr:uid="{5AEEEA2A-5851-2446-B265-5413E7463EB4}"/>
+    <hyperlink ref="C33" r:id="rId59" xr:uid="{69F07F72-19EA-2A48-BD61-28B1781725AF}"/>
+    <hyperlink ref="C34" r:id="rId60" xr:uid="{B73861B8-D369-B249-9926-D3B9B7F7B1C0}"/>
+    <hyperlink ref="C35" r:id="rId61" xr:uid="{32941293-03D2-214F-A93B-8991FCFE4B94}"/>
+    <hyperlink ref="C36" r:id="rId62" xr:uid="{BCC6FB11-F2A0-3449-A9D4-D6500482A927}"/>
+    <hyperlink ref="C37" r:id="rId63" location="open-positions" display="https://bluelabs.com/careers/ - open-positions" xr:uid="{1C334F86-B683-B64A-9574-1E0F353A8E38}"/>
+    <hyperlink ref="C38" r:id="rId64" xr:uid="{1B22CD82-00E6-6A46-806D-9471881A2FAA}"/>
+    <hyperlink ref="C39" r:id="rId65" xr:uid="{F0AB1ADF-F3DD-FE4A-AA8A-5C15F91EB577}"/>
+    <hyperlink ref="C40" r:id="rId66" xr:uid="{08092CF2-89E8-AF49-8951-004CCC7E8070}"/>
+    <hyperlink ref="C41" r:id="rId67" xr:uid="{DDF6F38C-39E2-F94A-8B11-536497EA45D6}"/>
+    <hyperlink ref="C42" r:id="rId68" xr:uid="{B49DE980-9685-2D46-A345-03A4A0B43972}"/>
+    <hyperlink ref="C43" r:id="rId69" xr:uid="{6D57A968-8830-6742-A448-B882586705B8}"/>
+    <hyperlink ref="C44" r:id="rId70" location="open-positions" display="https://civicactions.com/careers - open-positions" xr:uid="{3208CCDE-83BB-4D42-B347-E980FB8DFA7C}"/>
+    <hyperlink ref="C45" r:id="rId71" location="section-235189" display="https://jobs.techallies.org/ - section-235189" xr:uid="{3C98612C-BD48-A841-B1E3-CAB3247E8357}"/>
+    <hyperlink ref="C46" r:id="rId72" xr:uid="{D118ACE8-BE67-8948-BDB9-598B228C193C}"/>
+    <hyperlink ref="C47" r:id="rId73" xr:uid="{44E4DA86-79C3-8D4C-9209-DB7174D2BBE0}"/>
+    <hyperlink ref="C48" r:id="rId74" xr:uid="{847663D5-BE16-AF47-B04E-FB77CEC99801}"/>
+    <hyperlink ref="C49" r:id="rId75" xr:uid="{9F5E8F15-01F6-7F4C-B4CC-8976EF853EA5}"/>
+    <hyperlink ref="C50" r:id="rId76" xr:uid="{429D5714-739D-A24B-B0A1-F6B7F27C7189}"/>
+    <hyperlink ref="C51" r:id="rId77" xr:uid="{E798A2B5-2390-A449-A310-7309DEC5DD5D}"/>
+    <hyperlink ref="C52" r:id="rId78" xr:uid="{876290B9-FD77-5A43-BDA6-150094FA8677}"/>
+    <hyperlink ref="C53" r:id="rId79" xr:uid="{381BA07D-52A5-2847-80F6-DA7F36D5C616}"/>
+    <hyperlink ref="C54" r:id="rId80" xr:uid="{10DEE567-06DF-7546-B439-A9EE86D762F7}"/>
+    <hyperlink ref="C55" r:id="rId81" xr:uid="{6BB8610D-20B1-2C48-A5B4-C8BCF4E3013A}"/>
+    <hyperlink ref="C56" r:id="rId82" xr:uid="{D823A44E-90EF-F543-8661-CE08DE949DB1}"/>
+    <hyperlink ref="C60" r:id="rId83" xr:uid="{2FED5B69-9A0C-FD44-AB0B-6EA26016EDC6}"/>
+    <hyperlink ref="C61" r:id="rId84" xr:uid="{3E5AF2D0-E08D-644E-AB3A-282886D2B804}"/>
+    <hyperlink ref="C62" r:id="rId85" xr:uid="{8CB95BE8-92BA-5641-8A97-4CE0AC06605C}"/>
+    <hyperlink ref="C63" r:id="rId86" xr:uid="{C672984D-2DD1-C648-BD46-3ABCAEDDB49A}"/>
+    <hyperlink ref="C64" r:id="rId87" xr:uid="{EFA35D82-CEED-5E4C-82F1-2B9B184F840E}"/>
+    <hyperlink ref="C65" r:id="rId88" xr:uid="{81D1EEBC-5E0D-5041-B382-8A4542E99037}"/>
+    <hyperlink ref="C66" r:id="rId89" xr:uid="{52F937C0-76CD-5041-A3C3-64B65F71B849}"/>
+    <hyperlink ref="C67" r:id="rId90" xr:uid="{9FC8618E-3FAA-7E4B-A422-435FFFDAA6AE}"/>
+    <hyperlink ref="C68" r:id="rId91" xr:uid="{87673AC0-1DA4-B54A-88B6-C1C55DE5DF55}"/>
+    <hyperlink ref="C69" r:id="rId92" xr:uid="{17EF08C1-6613-1F48-A667-5F4AC20C4D60}"/>
+    <hyperlink ref="C70" r:id="rId93" xr:uid="{6B352990-02F5-7944-AAB9-8A4935B13F63}"/>
+    <hyperlink ref="C59" r:id="rId94" xr:uid="{49B06773-320A-0B42-83C1-C0A667A6E53B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/postgrad_job_search/src/Companies.xlsx
+++ b/postgrad_job_search/src/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kathryn/Projects/Job Search/postgrad-job-search/postgrad_job_search/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F081977-D3DD-7346-B132-6B791DDDBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A70F05-A8E4-314F-BB24-3AB54F85AFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>Website</t>
   </si>
@@ -37,18 +37,12 @@
     <t>City Bureau</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>Sector</t>
   </si>
   <si>
-    <t>Positions [Key Words]</t>
-  </si>
-  <si>
     <t>Non-Profit</t>
   </si>
   <si>
@@ -70,9 +64,6 @@
     <t>Mathematica</t>
   </si>
   <si>
-    <t>https://careers.mathematica.org/search-jobs/data/Chicago%2C%20IL/727/1/4/6252001-4896861-4888671-4887398/41x85003/-87x65005/50/2</t>
-  </si>
-  <si>
     <t>Private</t>
   </si>
   <si>
@@ -82,45 +73,27 @@
     <t>https://rand.wd5.myworkdayjobs.com/External_Career_Site/?q=data%20science&amp;jobFamilyGroup=c5ab0d6c532601b91e817cceff21df85&amp;jobFamilyGroup=c5ab0d6c5326011270ef7dceff21e385&amp;jobFamilyGroup=c5ab0d6c532601c86f3669ceff217985</t>
   </si>
   <si>
-    <t>Data Science, Data Scientist</t>
-  </si>
-  <si>
     <t>UChicago Urban Labs</t>
   </si>
   <si>
     <t>https://urbanlabs.uchicago.edu/careers</t>
   </si>
   <si>
-    <t>Associate, Project</t>
-  </si>
-  <si>
     <t>UChicago Crime Lab</t>
   </si>
   <si>
     <t>https://crimelab.uchicago.edu/careers/</t>
   </si>
   <si>
-    <t>Data Scientist</t>
-  </si>
-  <si>
     <t>UChicago Education Lab</t>
   </si>
   <si>
     <t>https://educationlab.uchicago.edu/careers/</t>
   </si>
   <si>
-    <t>Data Scientist, Data Analysis</t>
-  </si>
-  <si>
     <t>ABT Associates</t>
   </si>
   <si>
-    <t>https://egpy.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/JoinAbt/requisitions?lastSelectedFacet=CATEGORIES&amp;selectedCategoriesFacet=300000065400193</t>
-  </si>
-  <si>
-    <t>Statistian, Associate, Survey</t>
-  </si>
-  <si>
     <t>OpenGov</t>
   </si>
   <si>
@@ -193,9 +166,6 @@
     <t>Civic Tech</t>
   </si>
   <si>
-    <t>Data Engineer, Data Scientist</t>
-  </si>
-  <si>
     <t>ClimateAI</t>
   </si>
   <si>
@@ -247,9 +217,6 @@
     <t>https://www.nber.org/career-resources/staff-positions-nber</t>
   </si>
   <si>
-    <t>https://jobs.lever.co/acumenllc</t>
-  </si>
-  <si>
     <t>https://calbudgetcenter.org/careers/</t>
   </si>
   <si>
@@ -292,9 +259,6 @@
     <t>https://urban.wd1.myworkdayjobs.com/en-US/Urban-Careers/details/Research-Analyst--Financial-Well-Being--Center-on-Labor--Human-Services--and-Population-_R-801504?q=data</t>
   </si>
   <si>
-    <t>https://careers.mathematica.org/search-jobs/data/727/1?fl=6252001,1000000000100</t>
-  </si>
-  <si>
     <t>https://www.ipr.northwestern.edu/who-we-are/leadership-staff/join-our-team/</t>
   </si>
   <si>
@@ -349,9 +313,6 @@
     <t>National Bureau of Economic Research</t>
   </si>
   <si>
-    <t>The Sphere</t>
-  </si>
-  <si>
     <t>California Budget and Policy Center</t>
   </si>
   <si>
@@ -427,9 +388,6 @@
     <t>Public Agenda</t>
   </si>
   <si>
-    <t>CEPR</t>
-  </si>
-  <si>
     <t>EPI</t>
   </si>
   <si>
@@ -452,6 +410,15 @@
   </si>
   <si>
     <t>https://www.feedingamerica.org/about-us/careers/national-office-jobs-list</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>https://careers.mathematica.org/search-jobs</t>
+  </si>
+  <si>
+    <t>https://egpy.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/JoinAbt/requisitions?</t>
   </si>
 </sst>
 </file>
@@ -470,12 +437,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,18 +452,21 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +541,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -788,62 +763,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -857,708 +830,647 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
+      <c r="C8" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>59</v>
+      <c r="C21" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>9</v>
+      <c r="A28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>92</v>
+        <v>116</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>142</v>
+        <v>119</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>143</v>
+        <v>120</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1566,96 +1478,87 @@
     <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="B3" r:id="rId3" location="staff-opportunities" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="C3" r:id="rId4" location="staff-opportunities" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="C9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="C11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="C12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B13" r:id="rId23" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="C13" r:id="rId24" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="C14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B15" r:id="rId27" location="open-positions" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="C15" r:id="rId28" location="open-positions" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="C16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="C17" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B18" r:id="rId33" location="research-assistant" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="C18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="C19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="C20" r:id="rId38" location="care-package" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="C21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="C22" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="C23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="C24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B25" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="C25" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="C26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="C27" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B28" r:id="rId53" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="C28" r:id="rId54" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="C29" r:id="rId55" xr:uid="{435FC3AB-473A-2D43-AF46-689C818A59AA}"/>
-    <hyperlink ref="C30" r:id="rId56" xr:uid="{CA6B1CAB-FA06-3345-8C53-70085F62CAED}"/>
-    <hyperlink ref="C31" r:id="rId57" xr:uid="{5BD2D6D4-AB12-C649-A965-7B5857A6C154}"/>
-    <hyperlink ref="C32" r:id="rId58" xr:uid="{5AEEEA2A-5851-2446-B265-5413E7463EB4}"/>
-    <hyperlink ref="C33" r:id="rId59" xr:uid="{69F07F72-19EA-2A48-BD61-28B1781725AF}"/>
-    <hyperlink ref="C34" r:id="rId60" xr:uid="{B73861B8-D369-B249-9926-D3B9B7F7B1C0}"/>
-    <hyperlink ref="C35" r:id="rId61" xr:uid="{32941293-03D2-214F-A93B-8991FCFE4B94}"/>
-    <hyperlink ref="C36" r:id="rId62" xr:uid="{BCC6FB11-F2A0-3449-A9D4-D6500482A927}"/>
-    <hyperlink ref="C37" r:id="rId63" location="open-positions" display="https://bluelabs.com/careers/ - open-positions" xr:uid="{1C334F86-B683-B64A-9574-1E0F353A8E38}"/>
-    <hyperlink ref="C38" r:id="rId64" xr:uid="{1B22CD82-00E6-6A46-806D-9471881A2FAA}"/>
-    <hyperlink ref="C39" r:id="rId65" xr:uid="{F0AB1ADF-F3DD-FE4A-AA8A-5C15F91EB577}"/>
-    <hyperlink ref="C40" r:id="rId66" xr:uid="{08092CF2-89E8-AF49-8951-004CCC7E8070}"/>
-    <hyperlink ref="C41" r:id="rId67" xr:uid="{DDF6F38C-39E2-F94A-8B11-536497EA45D6}"/>
-    <hyperlink ref="C42" r:id="rId68" xr:uid="{B49DE980-9685-2D46-A345-03A4A0B43972}"/>
-    <hyperlink ref="C43" r:id="rId69" xr:uid="{6D57A968-8830-6742-A448-B882586705B8}"/>
-    <hyperlink ref="C44" r:id="rId70" location="open-positions" display="https://civicactions.com/careers - open-positions" xr:uid="{3208CCDE-83BB-4D42-B347-E980FB8DFA7C}"/>
-    <hyperlink ref="C45" r:id="rId71" location="section-235189" display="https://jobs.techallies.org/ - section-235189" xr:uid="{3C98612C-BD48-A841-B1E3-CAB3247E8357}"/>
-    <hyperlink ref="C46" r:id="rId72" xr:uid="{D118ACE8-BE67-8948-BDB9-598B228C193C}"/>
-    <hyperlink ref="C47" r:id="rId73" xr:uid="{44E4DA86-79C3-8D4C-9209-DB7174D2BBE0}"/>
-    <hyperlink ref="C48" r:id="rId74" xr:uid="{847663D5-BE16-AF47-B04E-FB77CEC99801}"/>
-    <hyperlink ref="C49" r:id="rId75" xr:uid="{9F5E8F15-01F6-7F4C-B4CC-8976EF853EA5}"/>
-    <hyperlink ref="C50" r:id="rId76" xr:uid="{429D5714-739D-A24B-B0A1-F6B7F27C7189}"/>
-    <hyperlink ref="C51" r:id="rId77" xr:uid="{E798A2B5-2390-A449-A310-7309DEC5DD5D}"/>
-    <hyperlink ref="C52" r:id="rId78" xr:uid="{876290B9-FD77-5A43-BDA6-150094FA8677}"/>
-    <hyperlink ref="C53" r:id="rId79" xr:uid="{381BA07D-52A5-2847-80F6-DA7F36D5C616}"/>
-    <hyperlink ref="C54" r:id="rId80" xr:uid="{10DEE567-06DF-7546-B439-A9EE86D762F7}"/>
-    <hyperlink ref="C55" r:id="rId81" xr:uid="{6BB8610D-20B1-2C48-A5B4-C8BCF4E3013A}"/>
-    <hyperlink ref="C56" r:id="rId82" xr:uid="{D823A44E-90EF-F543-8661-CE08DE949DB1}"/>
-    <hyperlink ref="C60" r:id="rId83" xr:uid="{2FED5B69-9A0C-FD44-AB0B-6EA26016EDC6}"/>
-    <hyperlink ref="C61" r:id="rId84" xr:uid="{3E5AF2D0-E08D-644E-AB3A-282886D2B804}"/>
-    <hyperlink ref="C62" r:id="rId85" xr:uid="{8CB95BE8-92BA-5641-8A97-4CE0AC06605C}"/>
-    <hyperlink ref="C63" r:id="rId86" xr:uid="{C672984D-2DD1-C648-BD46-3ABCAEDDB49A}"/>
-    <hyperlink ref="C64" r:id="rId87" xr:uid="{EFA35D82-CEED-5E4C-82F1-2B9B184F840E}"/>
-    <hyperlink ref="C65" r:id="rId88" xr:uid="{81D1EEBC-5E0D-5041-B382-8A4542E99037}"/>
-    <hyperlink ref="C66" r:id="rId89" xr:uid="{52F937C0-76CD-5041-A3C3-64B65F71B849}"/>
-    <hyperlink ref="C67" r:id="rId90" xr:uid="{9FC8618E-3FAA-7E4B-A422-435FFFDAA6AE}"/>
-    <hyperlink ref="C68" r:id="rId91" xr:uid="{87673AC0-1DA4-B54A-88B6-C1C55DE5DF55}"/>
-    <hyperlink ref="C69" r:id="rId92" xr:uid="{17EF08C1-6613-1F48-A667-5F4AC20C4D60}"/>
-    <hyperlink ref="C70" r:id="rId93" xr:uid="{6B352990-02F5-7944-AAB9-8A4935B13F63}"/>
-    <hyperlink ref="C59" r:id="rId94" xr:uid="{49B06773-320A-0B42-83C1-C0A667A6E53B}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="C7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="C10" r:id="rId16" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B12" r:id="rId19" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C12" r:id="rId20" location="open-positions" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B13" r:id="rId21" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B14" r:id="rId23" location="open-positions" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="C14" r:id="rId24" location="open-positions" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="C16" r:id="rId28" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B17" r:id="rId29" location="research-assistant" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="C18" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B19" r:id="rId33" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="C19" r:id="rId34" location="care-package" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B20" r:id="rId35" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="C20" r:id="rId36" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B21" r:id="rId37" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="C21" r:id="rId38" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B22" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="C22" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B23" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="C23" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B24" r:id="rId43" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="C24" r:id="rId44" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B25" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="C25" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B26" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="C26" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B27" r:id="rId49" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="C27" r:id="rId50" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="C28" r:id="rId51" xr:uid="{5BD2D6D4-AB12-C649-A965-7B5857A6C154}"/>
+    <hyperlink ref="C29" r:id="rId52" xr:uid="{5AEEEA2A-5851-2446-B265-5413E7463EB4}"/>
+    <hyperlink ref="C30" r:id="rId53" xr:uid="{69F07F72-19EA-2A48-BD61-28B1781725AF}"/>
+    <hyperlink ref="C31" r:id="rId54" xr:uid="{32941293-03D2-214F-A93B-8991FCFE4B94}"/>
+    <hyperlink ref="C32" r:id="rId55" xr:uid="{BCC6FB11-F2A0-3449-A9D4-D6500482A927}"/>
+    <hyperlink ref="C33" r:id="rId56" location="open-positions" display="https://bluelabs.com/careers/ - open-positions" xr:uid="{1C334F86-B683-B64A-9574-1E0F353A8E38}"/>
+    <hyperlink ref="C34" r:id="rId57" xr:uid="{1B22CD82-00E6-6A46-806D-9471881A2FAA}"/>
+    <hyperlink ref="C35" r:id="rId58" xr:uid="{F0AB1ADF-F3DD-FE4A-AA8A-5C15F91EB577}"/>
+    <hyperlink ref="C36" r:id="rId59" xr:uid="{08092CF2-89E8-AF49-8951-004CCC7E8070}"/>
+    <hyperlink ref="C37" r:id="rId60" xr:uid="{DDF6F38C-39E2-F94A-8B11-536497EA45D6}"/>
+    <hyperlink ref="C38" r:id="rId61" xr:uid="{B49DE980-9685-2D46-A345-03A4A0B43972}"/>
+    <hyperlink ref="C39" r:id="rId62" xr:uid="{6D57A968-8830-6742-A448-B882586705B8}"/>
+    <hyperlink ref="C40" r:id="rId63" location="open-positions" display="https://civicactions.com/careers - open-positions" xr:uid="{3208CCDE-83BB-4D42-B347-E980FB8DFA7C}"/>
+    <hyperlink ref="C41" r:id="rId64" location="section-235189" display="https://jobs.techallies.org/ - section-235189" xr:uid="{3C98612C-BD48-A841-B1E3-CAB3247E8357}"/>
+    <hyperlink ref="C42" r:id="rId65" xr:uid="{D118ACE8-BE67-8948-BDB9-598B228C193C}"/>
+    <hyperlink ref="C43" r:id="rId66" xr:uid="{44E4DA86-79C3-8D4C-9209-DB7174D2BBE0}"/>
+    <hyperlink ref="C44" r:id="rId67" xr:uid="{847663D5-BE16-AF47-B04E-FB77CEC99801}"/>
+    <hyperlink ref="C45" r:id="rId68" xr:uid="{9F5E8F15-01F6-7F4C-B4CC-8976EF853EA5}"/>
+    <hyperlink ref="C46" r:id="rId69" xr:uid="{429D5714-739D-A24B-B0A1-F6B7F27C7189}"/>
+    <hyperlink ref="C47" r:id="rId70" xr:uid="{E798A2B5-2390-A449-A310-7309DEC5DD5D}"/>
+    <hyperlink ref="C49" r:id="rId71" xr:uid="{381BA07D-52A5-2847-80F6-DA7F36D5C616}"/>
+    <hyperlink ref="C50" r:id="rId72" xr:uid="{10DEE567-06DF-7546-B439-A9EE86D762F7}"/>
+    <hyperlink ref="C51" r:id="rId73" xr:uid="{6BB8610D-20B1-2C48-A5B4-C8BCF4E3013A}"/>
+    <hyperlink ref="C52" r:id="rId74" xr:uid="{D823A44E-90EF-F543-8661-CE08DE949DB1}"/>
+    <hyperlink ref="C56" r:id="rId75" xr:uid="{2FED5B69-9A0C-FD44-AB0B-6EA26016EDC6}"/>
+    <hyperlink ref="C57" r:id="rId76" xr:uid="{3E5AF2D0-E08D-644E-AB3A-282886D2B804}"/>
+    <hyperlink ref="C58" r:id="rId77" xr:uid="{8CB95BE8-92BA-5641-8A97-4CE0AC06605C}"/>
+    <hyperlink ref="C59" r:id="rId78" xr:uid="{C672984D-2DD1-C648-BD46-3ABCAEDDB49A}"/>
+    <hyperlink ref="C60" r:id="rId79" xr:uid="{81D1EEBC-5E0D-5041-B382-8A4542E99037}"/>
+    <hyperlink ref="C61" r:id="rId80" xr:uid="{52F937C0-76CD-5041-A3C3-64B65F71B849}"/>
+    <hyperlink ref="C62" r:id="rId81" xr:uid="{9FC8618E-3FAA-7E4B-A422-435FFFDAA6AE}"/>
+    <hyperlink ref="C63" r:id="rId82" xr:uid="{87673AC0-1DA4-B54A-88B6-C1C55DE5DF55}"/>
+    <hyperlink ref="C64" r:id="rId83" xr:uid="{17EF08C1-6613-1F48-A667-5F4AC20C4D60}"/>
+    <hyperlink ref="C65" r:id="rId84" xr:uid="{6B352990-02F5-7944-AAB9-8A4935B13F63}"/>
+    <hyperlink ref="C55" r:id="rId85" xr:uid="{49B06773-320A-0B42-83C1-C0A667A6E53B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
